--- a/assignment_03/ex02/measurments.xlsx
+++ b/assignment_03/ex02/measurments.xlsx
@@ -8,13 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedesclavis/Documents/WS-2020:21/ParalleleSysteme/GIT/parallel_systems/assignment_03/ex02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C9DFD4-DA9F-1347-993D-6538598A1913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0668BC3-EBE5-564D-87FD-251F11F65567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{CB2CB96F-312F-E946-909E-ABB8D07526A2}"/>
+    <workbookView xWindow="380" yWindow="480" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{CB2CB96F-312F-E946-909E-ABB8D07526A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$A$21:$G$21</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$A$22:$G$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$A$17:$G$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$A$18:$G$18</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$A$19:$G$19</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$A$20:$G$20</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Tabelle1!$A$17:$G$17</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Tabelle1!$A$18:$G$18</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Tabelle1!$A$19:$G$19</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Tabelle1!$A$20:$G$20</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Tabelle1!$A$21:$G$21</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Tabelle1!$A$22:$G$22</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Measurments</t>
   </si>
@@ -72,14 +87,37 @@
     <t>8perhost 32</t>
   </si>
   <si>
-    <t>not measured</t>
+    <t>speedup 2perhost2</t>
+  </si>
+  <si>
+    <t>speedup 4perhost4</t>
+  </si>
+  <si>
+    <t>speedup 8perhost8</t>
+  </si>
+  <si>
+    <t>efficiency 2perhost 2</t>
+  </si>
+  <si>
+    <t>efficiency 4perhost4</t>
+  </si>
+  <si>
+    <t>efficiency 8perhost8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="175" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +141,12 @@
       <color theme="1"/>
       <name val=".AppleSystemUIFont"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,13 +168,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -146,6 +199,1613 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Executiontimes 1D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$6:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.0000">
+                  <c:v>94.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E9B-B046-86AC-248066D0423C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2perhost2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$6:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.66346000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88039500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4067700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8246799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.4438</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.00000">
+                  <c:v>28.3764</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>50.934399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E9B-B046-86AC-248066D0423C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4perhost4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$6:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$6:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.65449999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3407800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2564700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8918900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.000">
+                  <c:v>17.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.0000">
+                  <c:v>29.768899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E9B-B046-86AC-248066D0423C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$6:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$6:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.70904999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93191000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2623500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6407699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1435599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.0000">
+                  <c:v>14.8855</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.0000">
+                  <c:v>20.611699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E9B-B046-86AC-248066D0423C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$6:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$6:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6826099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0247899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6641499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1917299999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.778600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.0000">
+                  <c:v>19.511399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.0000">
+                  <c:v>23.950600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E9B-B046-86AC-248066D0423C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="306409295"/>
+        <c:axId val="306410943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306409295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306410943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="306410943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306409295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B55778-D366-9949-A45F-93C75F433DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="114300"/>
+          <a:ext cx="4089400" cy="719340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48155D2E-6858-2740-AC2D-BC9634DC3264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12890500" y="88900"/>
+          <a:ext cx="965200" cy="690617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1052089</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF8E4F7-D865-5842-AA18-ED91E613988F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14617700" y="203200"/>
+          <a:ext cx="963189" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C242B6-097E-6344-8AF8-E3EB0F53C9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,19 +2104,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7945630A-1161-AB4B-B889-7ECE79A292EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C786F317-DCB3-8349-8300-ED77E9912BA5}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A17" sqref="A17:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="7" width="15" customWidth="1"/>
+    <col min="9" max="11" width="21.33203125" customWidth="1"/>
+    <col min="13" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:15" ht="28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -467,7 +2143,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -476,7 +2152,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,7 +2163,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -498,7 +2174,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -518,12 +2194,30 @@
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" s="12">
         <v>300</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>0.52</v>
       </c>
       <c r="C6" s="1">
@@ -539,12 +2233,36 @@
         <v>1.6826099999999999</v>
       </c>
       <c r="G6" s="2"/>
+      <c r="I6">
+        <f>B6/C6</f>
+        <v>0.78376993337955558</v>
+      </c>
+      <c r="J6">
+        <f>B6/D6</f>
+        <v>0.79449961802902991</v>
+      </c>
+      <c r="K6">
+        <f>B6/E6</f>
+        <v>0.73337564346661033</v>
+      </c>
+      <c r="M6">
+        <f>I6/2</f>
+        <v>0.39188496668977779</v>
+      </c>
+      <c r="N6">
+        <f>J6/4</f>
+        <v>0.19862490450725748</v>
+      </c>
+      <c r="O6">
+        <f>K6/8</f>
+        <v>9.1671955433326291E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15">
+      <c r="A7" s="12">
         <v>400</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>0.96</v>
       </c>
       <c r="C7" s="1">
@@ -560,12 +2278,36 @@
         <v>2.0247899999999999</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="I7">
+        <f t="shared" ref="I7:I12" si="0">B7/C7</f>
+        <v>1.0904196411837868</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J12" si="1">B7/D7</f>
+        <v>0.94852287323387019</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K12" si="2">B7/E7</f>
+        <v>1.030142395724909</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M12" si="3">I7/2</f>
+        <v>0.54520982059189338</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N12" si="4">J7/4</f>
+        <v>0.23713071830846755</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O12" si="5">K7/8</f>
+        <v>0.12876779946561362</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15">
+      <c r="A8" s="12">
         <v>500</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>1.5</v>
       </c>
       <c r="C8" s="1">
@@ -581,12 +2323,36 @@
         <v>2.6641499999999998</v>
       </c>
       <c r="G8" s="2"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.0662723828344363</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1.1187517713569712</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1.1882599912860934</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.53313619141721813</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.27968794283924281</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>0.14853249891076167</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15">
+      <c r="A9" s="12">
         <v>1000</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -602,12 +2368,36 @@
         <v>5.1917299999999997</v>
       </c>
       <c r="G9" s="2"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.56875869353776</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1.8424858819519294</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>2.2720645872226664</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.78437934676887999</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.46062147048798235</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>0.28400807340283329</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15">
+      <c r="A10" s="12">
         <v>2000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>23.63</v>
       </c>
       <c r="C10" s="1">
@@ -623,29 +2413,123 @@
         <v>10.778600000000001</v>
       </c>
       <c r="G10" s="2"/>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.7576875585771881</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>2.6574777690682181</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>3.8463040972986344</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0.87884377928859403</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.66436944226705452</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0.4807880121623293</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:15">
+      <c r="A11" s="12">
+        <v>3000</v>
+      </c>
+      <c r="B11" s="11">
+        <v>53.2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>28.3764</v>
+      </c>
+      <c r="D11" s="4">
+        <v>17.789000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>14.8855</v>
+      </c>
+      <c r="F11" s="5">
+        <v>19.511399999999998</v>
+      </c>
       <c r="G11" s="2"/>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.8747973668259541</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>2.9906121760638595</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>3.5739478015518458</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.93739868341297705</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0.74765304401596488</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>0.44674347519398072</v>
+      </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:15">
+      <c r="A12" s="12">
+        <v>4000</v>
+      </c>
+      <c r="B12" s="5">
+        <v>94.59</v>
+      </c>
+      <c r="C12" s="9">
+        <v>50.934399999999997</v>
+      </c>
+      <c r="D12" s="5">
+        <v>29.768899999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20.611699999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>23.950600000000001</v>
+      </c>
       <c r="G12" s="2"/>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1.8570946158195643</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>3.1774771657669585</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>4.589141118879084</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.92854730790978213</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0.79436929144173962</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0.57364263985988551</v>
+      </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -653,10 +2537,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -664,194 +2546,327 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
+    <row r="18" spans="1:15">
+      <c r="A18" s="12">
         <v>50</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="10">
         <v>1.3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="10">
         <v>0.184534</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D18" s="10">
         <v>0.33028600000000002</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E18" s="10">
         <v>0.44193199999999999</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F18" s="10">
         <v>2.2300599999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G18" s="10">
         <v>12.092499999999999</v>
       </c>
+      <c r="I18">
+        <f>B18/C18</f>
+        <v>7.0447722370945192</v>
+      </c>
+      <c r="J18">
+        <f>B18/D18</f>
+        <v>3.935982754340178</v>
+      </c>
+      <c r="K18">
+        <f>B18/E18</f>
+        <v>2.9416290289003739</v>
+      </c>
+      <c r="M18">
+        <f>I18/2</f>
+        <v>3.5223861185472596</v>
+      </c>
+      <c r="N18">
+        <f>J18/4</f>
+        <v>0.98399568858504449</v>
+      </c>
+      <c r="O18">
+        <f>K18/8</f>
+        <v>0.36770362861254674</v>
+      </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
+    <row r="19" spans="1:15">
+      <c r="A19" s="12">
         <v>100</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="10">
         <v>10.19</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="10">
         <v>0.29660799999999998</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D19" s="10">
         <v>0.45011400000000001</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E19" s="10">
         <v>0.61969700000000005</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F19" s="10">
         <v>4.6957899999999997</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G19" s="10">
         <v>17.408000000000001</v>
       </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I23" si="6">B19/C19</f>
+        <v>34.355108425935917</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J23" si="7">B19/D19</f>
+        <v>22.638709304753906</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K23" si="8">B19/E19</f>
+        <v>16.443519978311979</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M24" si="9">I19/2</f>
+        <v>17.177554212967959</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N24" si="10">J19/4</f>
+        <v>5.6596773261884765</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O24" si="11">K19/8</f>
+        <v>2.0554399972889974</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
+    <row r="20" spans="1:15">
+      <c r="A20" s="12">
         <v>200</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="10">
         <v>81.3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="10">
         <v>0.57169300000000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D20" s="10">
         <v>0.91513500000000003</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="10">
         <v>1.27542</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F20" s="10">
         <v>7.1717199999999997</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G20" s="10">
         <v>35.682899999999997</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>142.2091926960799</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>88.839351571079675</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>63.743707955026579</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="9"/>
+        <v>71.104596348039948</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="10"/>
+        <v>22.209837892769919</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="11"/>
+        <v>7.9679634943783224</v>
+      </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
+    <row r="21" spans="1:15">
+      <c r="A21" s="12">
         <v>300</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="10">
         <v>277.77999999999997</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="10">
         <v>1.0167200000000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D21" s="10">
         <v>1.6753400000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="10">
         <v>2.5083500000000001</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F21" s="10">
         <v>18.339700000000001</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G21" s="10">
         <v>44.547499999999999</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>273.21189708080885</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>165.80514999940308</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>110.74212131480853</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="9"/>
+        <v>136.60594854040443</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="10"/>
+        <v>41.451287499850771</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="11"/>
+        <v>13.842765164351066</v>
+      </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
+    <row r="22" spans="1:15">
+      <c r="A22" s="12">
         <v>400</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="10">
         <v>721.48</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="10">
         <v>1.5530999999999999</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D22" s="10">
         <v>2.5440900000000002</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="10">
         <v>3.98915</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F22" s="10">
         <v>25.3369</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="10">
         <v>64.3857</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>464.54188397398752</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>283.59059624462969</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>180.86058433500872</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="9"/>
+        <v>232.27094198699376</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="10"/>
+        <v>70.897649061157423</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="11"/>
+        <v>22.607573041876091</v>
+      </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>500</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.8513299999999999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3.4069199999999999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5.5076700000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>33.467399999999998</v>
-      </c>
-      <c r="G21" s="1">
-        <v>88.413300000000007</v>
-      </c>
+    <row r="23" spans="1:15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4.58256</v>
-      </c>
-      <c r="D22" s="1">
-        <v>12.934799999999999</v>
-      </c>
-      <c r="E22" s="1">
-        <v>17.152200000000001</v>
-      </c>
-      <c r="F22" s="1">
-        <v>92.752399999999994</v>
-      </c>
-      <c r="G22" s="1">
-        <v>264.39999999999998</v>
-      </c>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignment_03/ex02/measurments.xlsx
+++ b/assignment_03/ex02/measurments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedesclavis/Documents/WS-2020:21/ParalleleSysteme/GIT/parallel_systems/assignment_03/ex02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0668BC3-EBE5-564D-87FD-251F11F65567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77427B45-2CE0-F346-9DB6-20C60DC35CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="480" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{CB2CB96F-312F-E946-909E-ABB8D07526A2}"/>
   </bookViews>
@@ -17,18 +17,30 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$A$21:$G$21</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$A$22:$G$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$A$17:$G$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$A$18:$G$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$A$19:$G$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$A$20:$G$20</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Tabelle1!$A$17:$G$17</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Tabelle1!$A$18:$G$18</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Tabelle1!$A$19:$G$19</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Tabelle1!$A$20:$G$20</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Tabelle1!$A$21:$G$21</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Tabelle1!$A$22:$G$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$A$17:$G$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$A$18:$G$18</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$A$17:$G$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$A$18:$G$18</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$A$19:$G$19</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$A$20:$G$20</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Tabelle1!$A$21:$G$21</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Tabelle1!$A$22:$G$22</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Tabelle1!$A$17:$G$17</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Tabelle1!$A$18:$G$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$A$19:$G$19</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Tabelle1!$A$19:$G$19</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Tabelle1!$A$20:$G$20</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Tabelle1!$A$21:$G$21</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Tabelle1!$A$22:$G$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$A$20:$G$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$A$21:$G$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$A$22:$G$22</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Tabelle1!$A$21:$G$21</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Tabelle1!$A$22:$G$22</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Tabelle1!$A$17:$G$17</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Tabelle1!$A$18:$G$18</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Tabelle1!$A$19:$G$19</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Tabelle1!$A$20:$G$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1116,6 +1128,2738 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Executiontimes 2D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>721.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-449A-5148-BBF2-F208C9652DF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2perhost2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.184534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29660799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57169300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0167200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5530999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-449A-5148-BBF2-F208C9652DF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4perhost4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33028600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45011400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91513500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6753400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5440900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-449A-5148-BBF2-F208C9652DF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61969700000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5083500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.98915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-449A-5148-BBF2-F208C9652DF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$18:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2300599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6957899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1717199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.339700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.3369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-449A-5148-BBF2-F208C9652DF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost 32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.092499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.682899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.547499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.3857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-449A-5148-BBF2-F208C9652DF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="306409295"/>
+        <c:axId val="306410943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306409295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306410943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="306410943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306409295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Executiontimes 2D till N=200</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD4C-214F-98B5-1C089181CC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2perhost2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.184534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29660799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57169300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD4C-214F-98B5-1C089181CC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4perhost4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$18:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33028600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45011400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91513500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD4C-214F-98B5-1C089181CC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.44193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61969700000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CD4C-214F-98B5-1C089181CC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$18:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2300599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6957899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1717199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CD4C-214F-98B5-1C089181CC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost 32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$18:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.092499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.682899999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CD4C-214F-98B5-1C089181CC6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="306409295"/>
+        <c:axId val="306410943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306409295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306410943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="306410943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306409295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Executiontimes 2D without</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> seq</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2perhost2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.184534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29660799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57169300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0167200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5530999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DA2-0F47-99D1-94D3DFE02894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4perhost4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33028600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45011400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91513500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6753400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5440900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8DA2-0F47-99D1-94D3DFE02894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44193199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61969700000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5083500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.98915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8DA2-0F47-99D1-94D3DFE02894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$18:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2300599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6957899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1717199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.339700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.3369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8DA2-0F47-99D1-94D3DFE02894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8perhost 32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.092499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.682899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.547499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.3857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-8DA2-0F47-99D1-94D3DFE02894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="306409295"/>
+        <c:axId val="306410943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="306409295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306410943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="306410943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306409295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1156,7 +3900,1564 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1805,6 +6106,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Diagramm 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FD00BD-846D-9E42-8854-47A0FC43667A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Diagramm 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE78FF0-4DE8-F544-9186-5D54AC4894C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Diagramm 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCDA463-F593-1A4D-937B-06FE857DB2D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2121,8 +6536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C786F317-DCB3-8349-8300-ED77E9912BA5}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/assignment_03/ex02/measurments.xlsx
+++ b/assignment_03/ex02/measurments.xlsx
@@ -8,41 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedesclavis/Documents/WS-2020:21/ParalleleSysteme/GIT/parallel_systems/assignment_03/ex02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77427B45-2CE0-F346-9DB6-20C60DC35CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403DB12-6121-1C46-A807-FDE002F0692F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="480" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{CB2CB96F-312F-E946-909E-ABB8D07526A2}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{CB2CB96F-312F-E946-909E-ABB8D07526A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$A$17:$G$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$A$18:$G$18</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$A$17:$G$17</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$A$18:$G$18</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$A$19:$G$19</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$A$20:$G$20</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Tabelle1!$A$21:$G$21</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Tabelle1!$A$22:$G$22</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Tabelle1!$A$17:$G$17</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Tabelle1!$A$18:$G$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$A$19:$G$19</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Tabelle1!$A$19:$G$19</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Tabelle1!$A$20:$G$20</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Tabelle1!$A$21:$G$21</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Tabelle1!$A$22:$G$22</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$A$20:$G$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$A$21:$G$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$A$22:$G$22</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Tabelle1!$A$21:$G$21</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Tabelle1!$A$22:$G$22</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Tabelle1!$A$17:$G$17</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Tabelle1!$A$18:$G$18</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Tabelle1!$A$19:$G$19</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Tabelle1!$A$20:$G$20</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,13 +82,13 @@
     <t>speedup 8perhost8</t>
   </si>
   <si>
-    <t>efficiency 2perhost 2</t>
+    <t>eff 2perhost2</t>
   </si>
   <si>
-    <t>efficiency 4perhost4</t>
+    <t>eff 4perhost4</t>
   </si>
   <si>
-    <t>efficiency 8perhost8</t>
+    <t>eff 8perhost8</t>
   </si>
 </sst>
 </file>
@@ -122,14 +96,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +133,18 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,22 +166,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5946,8 +5940,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
@@ -5991,7 +5985,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>17517</xdr:rowOff>
     </xdr:to>
@@ -6073,15 +6067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6108,16 +6102,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6147,14 +6141,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1022350</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6184,16 +6178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6529,36 +6523,36 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C786F317-DCB3-8349-8300-ED77E9912BA5}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="7" width="15" customWidth="1"/>
-    <col min="9" max="11" width="21.33203125" customWidth="1"/>
-    <col min="13" max="15" width="21.5" customWidth="1"/>
+    <col min="9" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="28">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6567,7 +6561,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6578,7 +6572,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6583,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6609,30 +6603,31 @@
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="12">
+    <row r="6" spans="1:17">
+      <c r="A6" s="11">
         <v>300</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.52</v>
       </c>
       <c r="C6" s="1">
@@ -6648,36 +6643,36 @@
         <v>1.6826099999999999</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="I6">
+      <c r="I6" s="15">
         <f>B6/C6</f>
         <v>0.78376993337955558</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="15">
         <f>B6/D6</f>
         <v>0.79449961802902991</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="15">
         <f>B6/E6</f>
         <v>0.73337564346661033</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="15">
         <f>I6/2</f>
         <v>0.39188496668977779</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="15">
         <f>J6/4</f>
         <v>0.19862490450725748</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="15">
         <f>K6/8</f>
         <v>9.1671955433326291E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="12">
+    <row r="7" spans="1:17">
+      <c r="A7" s="11">
         <v>400</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.96</v>
       </c>
       <c r="C7" s="1">
@@ -6693,36 +6688,36 @@
         <v>2.0247899999999999</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="I7">
+      <c r="I7" s="15">
         <f t="shared" ref="I7:I12" si="0">B7/C7</f>
         <v>1.0904196411837868</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="15">
         <f t="shared" ref="J7:J12" si="1">B7/D7</f>
         <v>0.94852287323387019</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="15">
         <f t="shared" ref="K7:K12" si="2">B7/E7</f>
         <v>1.030142395724909</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M12" si="3">I7/2</f>
+      <c r="M7" s="15">
+        <f>I7/2</f>
         <v>0.54520982059189338</v>
       </c>
-      <c r="N7">
-        <f t="shared" ref="N7:N12" si="4">J7/4</f>
+      <c r="N7" s="15">
+        <f>J7/4</f>
         <v>0.23713071830846755</v>
       </c>
-      <c r="O7">
-        <f t="shared" ref="O7:O12" si="5">K7/8</f>
+      <c r="O7" s="15">
+        <f>K7/8</f>
         <v>0.12876779946561362</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="12">
+    <row r="8" spans="1:17">
+      <c r="A8" s="11">
         <v>500</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1.5</v>
       </c>
       <c r="C8" s="1">
@@ -6738,36 +6733,36 @@
         <v>2.6641499999999998</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="I8">
+      <c r="I8" s="15">
         <f t="shared" si="0"/>
         <v>1.0662723828344363</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>1.1187517713569712</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="15">
         <f t="shared" si="2"/>
         <v>1.1882599912860934</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
+      <c r="M8" s="15">
+        <f>I8/2</f>
         <v>0.53313619141721813</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
+      <c r="N8" s="15">
+        <f>J8/4</f>
         <v>0.27968794283924281</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
+      <c r="O8" s="15">
+        <f>K8/8</f>
         <v>0.14853249891076167</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="12">
+    <row r="9" spans="1:17">
+      <c r="A9" s="11">
         <v>1000</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -6783,36 +6778,36 @@
         <v>5.1917299999999997</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="I9">
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>1.56875869353776</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="15">
         <f t="shared" si="1"/>
         <v>1.8424858819519294</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="15">
         <f t="shared" si="2"/>
         <v>2.2720645872226664</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
+      <c r="M9" s="15">
+        <f>I9/2</f>
         <v>0.78437934676887999</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
+      <c r="N9" s="15">
+        <f>J9/4</f>
         <v>0.46062147048798235</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
+      <c r="O9" s="15">
+        <f>K9/8</f>
         <v>0.28400807340283329</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="12">
+    <row r="10" spans="1:17">
+      <c r="A10" s="11">
         <v>2000</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>23.63</v>
       </c>
       <c r="C10" s="1">
@@ -6828,122 +6823,122 @@
         <v>10.778600000000001</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="I10">
+      <c r="I10" s="15">
         <f t="shared" si="0"/>
         <v>1.7576875585771881</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="15">
         <f t="shared" si="1"/>
         <v>2.6574777690682181</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="15">
         <f t="shared" si="2"/>
         <v>3.8463040972986344</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
+      <c r="M10" s="15">
+        <f>I10/2</f>
         <v>0.87884377928859403</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
+      <c r="N10" s="15">
+        <f>J10/4</f>
         <v>0.66436944226705452</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="5"/>
+      <c r="O10" s="15">
+        <f>K10/8</f>
         <v>0.4807880121623293</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="12">
+    <row r="11" spans="1:17">
+      <c r="A11" s="11">
         <v>3000</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>53.2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>28.3764</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>17.789000000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>14.8855</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>19.511399999999998</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="I11">
+      <c r="I11" s="15">
         <f t="shared" si="0"/>
         <v>1.8747973668259541</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>2.9906121760638595</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="15">
         <f t="shared" si="2"/>
         <v>3.5739478015518458</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
+      <c r="M11" s="15">
+        <f>I11/2</f>
         <v>0.93739868341297705</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
+      <c r="N11" s="15">
+        <f>J11/4</f>
         <v>0.74765304401596488</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="5"/>
+      <c r="O11" s="15">
+        <f>K11/8</f>
         <v>0.44674347519398072</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="12">
+    <row r="12" spans="1:17">
+      <c r="A12" s="11">
         <v>4000</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>94.59</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>50.934399999999997</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>29.768899999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>20.611699999999999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>23.950600000000001</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="I12">
+      <c r="I12" s="15">
         <f t="shared" si="0"/>
         <v>1.8570946158195643</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="15">
         <f t="shared" si="1"/>
         <v>3.1774771657669585</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="15">
         <f t="shared" si="2"/>
         <v>4.589141118879084</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
+      <c r="M12" s="15">
+        <f>I12/2</f>
         <v>0.92854730790978213</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
+      <c r="N12" s="15">
+        <f>J12/4</f>
         <v>0.79436929144173962</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="5"/>
+      <c r="O12" s="15">
+        <f>K12/8</f>
         <v>0.57364263985988551</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6952,7 +6947,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6961,7 +6956,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -6972,7 +6967,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -6982,6 +6977,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
@@ -7005,283 +7001,285 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>50</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>1.3</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>0.184534</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>0.33028600000000002</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>0.44193199999999999</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>2.2300599999999999</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>12.092499999999999</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="15">
         <f>B18/C18</f>
         <v>7.0447722370945192</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="15">
         <f>B18/D18</f>
         <v>3.935982754340178</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="15">
         <f>B18/E18</f>
         <v>2.9416290289003739</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="15">
         <f>I18/2</f>
         <v>3.5223861185472596</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="15">
         <f>J18/4</f>
         <v>0.98399568858504449</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="15">
         <f>K18/8</f>
         <v>0.36770362861254674</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>100</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>10.19</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>0.29660799999999998</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.45011400000000001</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>0.61969700000000005</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>4.6957899999999997</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>17.408000000000001</v>
       </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I23" si="6">B19/C19</f>
+      <c r="I19" s="15">
+        <f t="shared" ref="I19:I22" si="3">B19/C19</f>
         <v>34.355108425935917</v>
       </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J23" si="7">B19/D19</f>
+      <c r="J19" s="15">
+        <f t="shared" ref="J19:J22" si="4">B19/D19</f>
         <v>22.638709304753906</v>
       </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K23" si="8">B19/E19</f>
+      <c r="K19" s="15">
+        <f t="shared" ref="K19:K22" si="5">B19/E19</f>
         <v>16.443519978311979</v>
       </c>
-      <c r="M19">
-        <f t="shared" ref="M19:M24" si="9">I19/2</f>
+      <c r="M19" s="15">
+        <f>I19/2</f>
         <v>17.177554212967959</v>
       </c>
-      <c r="N19">
-        <f t="shared" ref="N19:N24" si="10">J19/4</f>
+      <c r="N19" s="15">
+        <f>J19/4</f>
         <v>5.6596773261884765</v>
       </c>
-      <c r="O19">
-        <f t="shared" ref="O19:O24" si="11">K19/8</f>
+      <c r="O19" s="15">
+        <f>K19/8</f>
         <v>2.0554399972889974</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>200</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>81.3</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>0.57169300000000001</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0.91513500000000003</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>1.27542</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>7.1717199999999997</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>35.682899999999997</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="6"/>
+      <c r="I20" s="15">
+        <f t="shared" si="3"/>
         <v>142.2091926960799</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="7"/>
+      <c r="J20" s="15">
+        <f t="shared" si="4"/>
         <v>88.839351571079675</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="8"/>
+      <c r="K20" s="15">
+        <f t="shared" si="5"/>
         <v>63.743707955026579</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="9"/>
+      <c r="M20" s="15">
+        <f>I20/2</f>
         <v>71.104596348039948</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="10"/>
+      <c r="N20" s="15">
+        <f>J20/4</f>
         <v>22.209837892769919</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="11"/>
+      <c r="O20" s="15">
+        <f>K20/8</f>
         <v>7.9679634943783224</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>300</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>277.77999999999997</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>1.0167200000000001</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>1.6753400000000001</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>2.5083500000000001</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>18.339700000000001</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>44.547499999999999</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="6"/>
+      <c r="I21" s="15">
+        <f t="shared" si="3"/>
         <v>273.21189708080885</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="7"/>
+      <c r="J21" s="15">
+        <f t="shared" si="4"/>
         <v>165.80514999940308</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="8"/>
+      <c r="K21" s="15">
+        <f t="shared" si="5"/>
         <v>110.74212131480853</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="9"/>
+      <c r="M21" s="15">
+        <f>I21/2</f>
         <v>136.60594854040443</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="10"/>
+      <c r="N21" s="15">
+        <f>J21/4</f>
         <v>41.451287499850771</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="11"/>
+      <c r="O21" s="15">
+        <f>K21/8</f>
         <v>13.842765164351066</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>400</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>721.48</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>1.5530999999999999</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>2.5440900000000002</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>3.98915</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>25.3369</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>64.3857</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="6"/>
+      <c r="I22" s="15">
+        <f t="shared" si="3"/>
         <v>464.54188397398752</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="7"/>
+      <c r="J22" s="15">
+        <f t="shared" si="4"/>
         <v>283.59059624462969</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="8"/>
+      <c r="K22" s="15">
+        <f t="shared" si="5"/>
         <v>180.86058433500872</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="9"/>
+      <c r="M22" s="15">
+        <f>I22/2</f>
         <v>232.27094198699376</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="10"/>
+      <c r="N22" s="15">
+        <f>J22/4</f>
         <v>70.897649061157423</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="11"/>
+      <c r="O22" s="15">
+        <f>K22/8</f>
         <v>22.607573041876091</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignment_03/ex02/measurments.xlsx
+++ b/assignment_03/ex02/measurments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedesclavis/Documents/WS-2020:21/ParalleleSysteme/GIT/parallel_systems/assignment_03/ex02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403DB12-6121-1C46-A807-FDE002F0692F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CFD5DF-62EC-3A4C-8CFE-AFB86D025373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{CB2CB96F-312F-E946-909E-ABB8D07526A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Measurments</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>eff 8perhost8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D </t>
+  </si>
+  <si>
+    <t>T= N*50</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -179,9 +185,6 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -190,6 +193,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6068,14 +6078,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6104,14 +6114,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6142,14 +6152,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6180,14 +6190,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6529,10 +6539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C786F317-DCB3-8349-8300-ED77E9912BA5}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6542,15 +6552,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2"/>
@@ -6603,23 +6613,23 @@
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6643,28 +6653,28 @@
         <v>1.6826099999999999</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f>B6/C6</f>
         <v>0.78376993337955558</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>B6/D6</f>
         <v>0.79449961802902991</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>B6/E6</f>
         <v>0.73337564346661033</v>
       </c>
-      <c r="M6" s="15">
-        <f>I6/2</f>
+      <c r="M6" s="14">
+        <f t="shared" ref="M6:M12" si="0">I6/2</f>
         <v>0.39188496668977779</v>
       </c>
-      <c r="N6" s="15">
-        <f>J6/4</f>
+      <c r="N6" s="14">
+        <f t="shared" ref="N6:N12" si="1">J6/4</f>
         <v>0.19862490450725748</v>
       </c>
-      <c r="O6" s="15">
-        <f>K6/8</f>
+      <c r="O6" s="14">
+        <f t="shared" ref="O6:O12" si="2">K6/8</f>
         <v>9.1671955433326291E-2</v>
       </c>
     </row>
@@ -6688,28 +6698,28 @@
         <v>2.0247899999999999</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="I7" s="15">
-        <f t="shared" ref="I7:I12" si="0">B7/C7</f>
+      <c r="I7" s="14">
+        <f t="shared" ref="I7:I12" si="3">B7/C7</f>
         <v>1.0904196411837868</v>
       </c>
-      <c r="J7" s="15">
-        <f t="shared" ref="J7:J12" si="1">B7/D7</f>
+      <c r="J7" s="14">
+        <f t="shared" ref="J7:J12" si="4">B7/D7</f>
         <v>0.94852287323387019</v>
       </c>
-      <c r="K7" s="15">
-        <f t="shared" ref="K7:K12" si="2">B7/E7</f>
+      <c r="K7" s="14">
+        <f t="shared" ref="K7:K12" si="5">B7/E7</f>
         <v>1.030142395724909</v>
       </c>
-      <c r="M7" s="15">
-        <f>I7/2</f>
+      <c r="M7" s="14">
+        <f t="shared" si="0"/>
         <v>0.54520982059189338</v>
       </c>
-      <c r="N7" s="15">
-        <f>J7/4</f>
+      <c r="N7" s="14">
+        <f t="shared" si="1"/>
         <v>0.23713071830846755</v>
       </c>
-      <c r="O7" s="15">
-        <f>K7/8</f>
+      <c r="O7" s="14">
+        <f t="shared" si="2"/>
         <v>0.12876779946561362</v>
       </c>
     </row>
@@ -6733,28 +6743,28 @@
         <v>2.6641499999999998</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0662723828344363</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1187517713569712</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1882599912860934</v>
+      </c>
+      <c r="M8" s="14">
         <f t="shared" si="0"/>
-        <v>1.0662723828344363</v>
-      </c>
-      <c r="J8" s="15">
+        <v>0.53313619141721813</v>
+      </c>
+      <c r="N8" s="14">
         <f t="shared" si="1"/>
-        <v>1.1187517713569712</v>
-      </c>
-      <c r="K8" s="15">
+        <v>0.27968794283924281</v>
+      </c>
+      <c r="O8" s="14">
         <f t="shared" si="2"/>
-        <v>1.1882599912860934</v>
-      </c>
-      <c r="M8" s="15">
-        <f>I8/2</f>
-        <v>0.53313619141721813</v>
-      </c>
-      <c r="N8" s="15">
-        <f>J8/4</f>
-        <v>0.27968794283924281</v>
-      </c>
-      <c r="O8" s="15">
-        <f>K8/8</f>
         <v>0.14853249891076167</v>
       </c>
     </row>
@@ -6778,28 +6788,28 @@
         <v>5.1917299999999997</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
+        <f t="shared" si="3"/>
+        <v>1.56875869353776</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="4"/>
+        <v>1.8424858819519294</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="5"/>
+        <v>2.2720645872226664</v>
+      </c>
+      <c r="M9" s="14">
         <f t="shared" si="0"/>
-        <v>1.56875869353776</v>
-      </c>
-      <c r="J9" s="15">
+        <v>0.78437934676887999</v>
+      </c>
+      <c r="N9" s="14">
         <f t="shared" si="1"/>
-        <v>1.8424858819519294</v>
-      </c>
-      <c r="K9" s="15">
+        <v>0.46062147048798235</v>
+      </c>
+      <c r="O9" s="14">
         <f t="shared" si="2"/>
-        <v>2.2720645872226664</v>
-      </c>
-      <c r="M9" s="15">
-        <f>I9/2</f>
-        <v>0.78437934676887999</v>
-      </c>
-      <c r="N9" s="15">
-        <f>J9/4</f>
-        <v>0.46062147048798235</v>
-      </c>
-      <c r="O9" s="15">
-        <f>K9/8</f>
         <v>0.28400807340283329</v>
       </c>
     </row>
@@ -6823,28 +6833,28 @@
         <v>10.778600000000001</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
+        <f t="shared" si="3"/>
+        <v>1.7576875585771881</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="4"/>
+        <v>2.6574777690682181</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="5"/>
+        <v>3.8463040972986344</v>
+      </c>
+      <c r="M10" s="14">
         <f t="shared" si="0"/>
-        <v>1.7576875585771881</v>
-      </c>
-      <c r="J10" s="15">
+        <v>0.87884377928859403</v>
+      </c>
+      <c r="N10" s="14">
         <f t="shared" si="1"/>
-        <v>2.6574777690682181</v>
-      </c>
-      <c r="K10" s="15">
+        <v>0.66436944226705452</v>
+      </c>
+      <c r="O10" s="14">
         <f t="shared" si="2"/>
-        <v>3.8463040972986344</v>
-      </c>
-      <c r="M10" s="15">
-        <f>I10/2</f>
-        <v>0.87884377928859403</v>
-      </c>
-      <c r="N10" s="15">
-        <f>J10/4</f>
-        <v>0.66436944226705452</v>
-      </c>
-      <c r="O10" s="15">
-        <f>K10/8</f>
         <v>0.4807880121623293</v>
       </c>
     </row>
@@ -6868,28 +6878,28 @@
         <v>19.511399999999998</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
+        <f t="shared" si="3"/>
+        <v>1.8747973668259541</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="4"/>
+        <v>2.9906121760638595</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="5"/>
+        <v>3.5739478015518458</v>
+      </c>
+      <c r="M11" s="14">
         <f t="shared" si="0"/>
-        <v>1.8747973668259541</v>
-      </c>
-      <c r="J11" s="15">
+        <v>0.93739868341297705</v>
+      </c>
+      <c r="N11" s="14">
         <f t="shared" si="1"/>
-        <v>2.9906121760638595</v>
-      </c>
-      <c r="K11" s="15">
+        <v>0.74765304401596488</v>
+      </c>
+      <c r="O11" s="14">
         <f t="shared" si="2"/>
-        <v>3.5739478015518458</v>
-      </c>
-      <c r="M11" s="15">
-        <f>I11/2</f>
-        <v>0.93739868341297705</v>
-      </c>
-      <c r="N11" s="15">
-        <f>J11/4</f>
-        <v>0.74765304401596488</v>
-      </c>
-      <c r="O11" s="15">
-        <f>K11/8</f>
         <v>0.44674347519398072</v>
       </c>
     </row>
@@ -6913,28 +6923,28 @@
         <v>23.950600000000001</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
+        <f t="shared" si="3"/>
+        <v>1.8570946158195643</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="4"/>
+        <v>3.1774771657669585</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="5"/>
+        <v>4.589141118879084</v>
+      </c>
+      <c r="M12" s="14">
         <f t="shared" si="0"/>
-        <v>1.8570946158195643</v>
-      </c>
-      <c r="J12" s="15">
+        <v>0.92854730790978213</v>
+      </c>
+      <c r="N12" s="14">
         <f t="shared" si="1"/>
-        <v>3.1774771657669585</v>
-      </c>
-      <c r="K12" s="15">
+        <v>0.79436929144173962</v>
+      </c>
+      <c r="O12" s="14">
         <f t="shared" si="2"/>
-        <v>4.589141118879084</v>
-      </c>
-      <c r="M12" s="15">
-        <f>I12/2</f>
-        <v>0.92854730790978213</v>
-      </c>
-      <c r="N12" s="15">
-        <f>J12/4</f>
-        <v>0.79436929144173962</v>
-      </c>
-      <c r="O12" s="15">
-        <f>K12/8</f>
         <v>0.57364263985988551</v>
       </c>
     </row>
@@ -6977,7 +6987,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
@@ -7001,23 +7011,23 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="16" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7043,27 +7053,27 @@
       <c r="G18" s="9">
         <v>12.092499999999999</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="14">
         <f>B18/C18</f>
         <v>7.0447722370945192</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <f>B18/D18</f>
         <v>3.935982754340178</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <f>B18/E18</f>
         <v>2.9416290289003739</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="14">
         <f>I18/2</f>
         <v>3.5223861185472596</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <f>J18/4</f>
         <v>0.98399568858504449</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="14">
         <f>K18/8</f>
         <v>0.36770362861254674</v>
       </c>
@@ -7090,27 +7100,27 @@
       <c r="G19" s="9">
         <v>17.408000000000001</v>
       </c>
-      <c r="I19" s="15">
-        <f t="shared" ref="I19:I22" si="3">B19/C19</f>
+      <c r="I19" s="14">
+        <f t="shared" ref="I19:I22" si="6">B19/C19</f>
         <v>34.355108425935917</v>
       </c>
-      <c r="J19" s="15">
-        <f t="shared" ref="J19:J22" si="4">B19/D19</f>
+      <c r="J19" s="14">
+        <f t="shared" ref="J19:J22" si="7">B19/D19</f>
         <v>22.638709304753906</v>
       </c>
-      <c r="K19" s="15">
-        <f t="shared" ref="K19:K22" si="5">B19/E19</f>
+      <c r="K19" s="14">
+        <f t="shared" ref="K19:K22" si="8">B19/E19</f>
         <v>16.443519978311979</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="14">
         <f>I19/2</f>
         <v>17.177554212967959</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="14">
         <f>J19/4</f>
         <v>5.6596773261884765</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="14">
         <f>K19/8</f>
         <v>2.0554399972889974</v>
       </c>
@@ -7137,27 +7147,27 @@
       <c r="G20" s="9">
         <v>35.682899999999997</v>
       </c>
-      <c r="I20" s="15">
-        <f t="shared" si="3"/>
+      <c r="I20" s="14">
+        <f t="shared" si="6"/>
         <v>142.2091926960799</v>
       </c>
-      <c r="J20" s="15">
-        <f t="shared" si="4"/>
+      <c r="J20" s="14">
+        <f t="shared" si="7"/>
         <v>88.839351571079675</v>
       </c>
-      <c r="K20" s="15">
-        <f t="shared" si="5"/>
+      <c r="K20" s="14">
+        <f t="shared" si="8"/>
         <v>63.743707955026579</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="14">
         <f>I20/2</f>
         <v>71.104596348039948</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <f>J20/4</f>
         <v>22.209837892769919</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <f>K20/8</f>
         <v>7.9679634943783224</v>
       </c>
@@ -7184,27 +7194,27 @@
       <c r="G21" s="9">
         <v>44.547499999999999</v>
       </c>
-      <c r="I21" s="15">
-        <f t="shared" si="3"/>
+      <c r="I21" s="14">
+        <f t="shared" si="6"/>
         <v>273.21189708080885</v>
       </c>
-      <c r="J21" s="15">
-        <f t="shared" si="4"/>
+      <c r="J21" s="14">
+        <f t="shared" si="7"/>
         <v>165.80514999940308</v>
       </c>
-      <c r="K21" s="15">
-        <f t="shared" si="5"/>
+      <c r="K21" s="14">
+        <f t="shared" si="8"/>
         <v>110.74212131480853</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <f>I21/2</f>
         <v>136.60594854040443</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <f>J21/4</f>
         <v>41.451287499850771</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="14">
         <f>K21/8</f>
         <v>13.842765164351066</v>
       </c>
@@ -7231,27 +7241,27 @@
       <c r="G22" s="9">
         <v>64.3857</v>
       </c>
-      <c r="I22" s="15">
-        <f t="shared" si="3"/>
+      <c r="I22" s="14">
+        <f t="shared" si="6"/>
         <v>464.54188397398752</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="4"/>
+      <c r="J22" s="14">
+        <f t="shared" si="7"/>
         <v>283.59059624462969</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="5"/>
+      <c r="K22" s="14">
+        <f t="shared" si="8"/>
         <v>180.86058433500872</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="14">
         <f>I22/2</f>
         <v>232.27094198699376</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <f>J22/4</f>
         <v>70.897649061157423</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="14">
         <f>K22/8</f>
         <v>22.607573041876091</v>
       </c>
@@ -7274,6 +7284,74 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29">
+        <v>0.23748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" s="19">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>128</v>
+      </c>
+      <c r="B32" s="17">
+        <v>186.14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
